--- a/FXLeibility.Matlab/Experiment/Original/Figure (Autosaved).xlsx
+++ b/FXLeibility.Matlab/Experiment/Original/Figure (Autosaved).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24880" windowHeight="15540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Germany_ESS" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="24">
   <si>
     <t>DA</t>
   </si>
@@ -86,15 +86,6 @@
     <t>DA+ID+SCR+PCR</t>
   </si>
   <si>
-    <t xml:space="preserve">Explicit Revenue </t>
-  </si>
-  <si>
-    <t>Implicit cost of charging</t>
-  </si>
-  <si>
-    <t>Total revenue</t>
-  </si>
-  <si>
     <t>DA+RT+RegD</t>
   </si>
   <si>
@@ -104,10 +95,16 @@
     <t>RT</t>
   </si>
   <si>
-    <t>Profit</t>
+    <t>DA+RT+RegD+RegA</t>
   </si>
   <si>
-    <t>DA+RT+RegD+RegA</t>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Implicit charging cost</t>
+  </si>
+  <si>
+    <t>Proft</t>
   </si>
 </sst>
 </file>
@@ -115,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -159,8 +156,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -193,10 +200,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -210,6 +217,11 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -223,6 +235,11 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -320,7 +337,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -428,7 +444,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -536,7 +551,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -591,8 +605,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1422523840"/>
-        <c:axId val="1422526592"/>
+        <c:axId val="1446367264"/>
+        <c:axId val="1527556704"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -669,7 +683,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -723,11 +736,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1422531552"/>
-        <c:axId val="1422529072"/>
+        <c:axId val="1527748896"/>
+        <c:axId val="1527559024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1422523840"/>
+        <c:axId val="1446367264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -736,7 +749,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1422526592"/>
+        <c:crossAx val="1527556704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -744,7 +757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1422526592"/>
+        <c:axId val="1527556704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800.0"/>
@@ -785,12 +798,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422523840"/>
+        <c:crossAx val="1446367264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1422529072"/>
+        <c:axId val="1527559024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160000.0"/>
@@ -830,12 +843,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422531552"/>
+        <c:crossAx val="1527748896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1422531552"/>
+        <c:axId val="1527748896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,7 +857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1422529072"/>
+        <c:crossAx val="1527559024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -863,7 +876,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1009,7 +1021,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1124,7 +1135,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1240,7 +1250,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1318,8 +1327,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1423969520"/>
-        <c:axId val="1423971312"/>
+        <c:axId val="1446552304"/>
+        <c:axId val="1446670560"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1384,7 +1393,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1462,11 +1470,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1423978656"/>
-        <c:axId val="1423974384"/>
+        <c:axId val="1446248064"/>
+        <c:axId val="1446546144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1423969520"/>
+        <c:axId val="1446552304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1503,7 +1511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423971312"/>
+        <c:crossAx val="1446670560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1511,7 +1519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1423971312"/>
+        <c:axId val="1446670560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,13 +1612,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423969520"/>
+        <c:crossAx val="1446552304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1423974384"/>
+        <c:axId val="1446546144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -1705,13 +1713,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423978656"/>
+        <c:crossAx val="1446248064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1423978656"/>
+        <c:axId val="1446248064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,7 +1729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1423974384"/>
+        <c:crossAx val="1446546144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1856,7 +1864,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1971,7 +1978,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2087,7 +2093,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2165,8 +2170,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1422808240"/>
-        <c:axId val="1422810992"/>
+        <c:axId val="1483582624"/>
+        <c:axId val="1483584944"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2231,7 +2236,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2309,11 +2313,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1422819024"/>
-        <c:axId val="1422814752"/>
+        <c:axId val="1483592240"/>
+        <c:axId val="1483588336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1422808240"/>
+        <c:axId val="1483582624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422810992"/>
+        <c:crossAx val="1483584944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2358,7 +2362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1422810992"/>
+        <c:axId val="1483584944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30.0"/>
@@ -2452,13 +2456,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422808240"/>
+        <c:crossAx val="1483582624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1422814752"/>
+        <c:axId val="1483588336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -2553,13 +2557,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422819024"/>
+        <c:crossAx val="1483592240"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1422819024"/>
+        <c:axId val="1483592240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2569,7 +2573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1422814752"/>
+        <c:crossAx val="1483588336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2686,9 +2690,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2707,9 +2709,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2728,16 +2728,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.48755627201334E-17"/>
+                  <c:x val="-8.48755627201336E-17"/>
                   <c:y val="-0.0347222222222222"/>
                 </c:manualLayout>
               </c:layout>
@@ -2749,9 +2747,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2770,9 +2766,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -2927,7 +2921,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3047,7 +3040,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3125,8 +3117,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1422845088"/>
-        <c:axId val="1422847840"/>
+        <c:axId val="1483267424"/>
+        <c:axId val="1483185952"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3216,11 +3208,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1422855360"/>
-        <c:axId val="1422851600"/>
+        <c:axId val="1483192736"/>
+        <c:axId val="1483189344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1422845088"/>
+        <c:axId val="1483267424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3257,7 +3249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422847840"/>
+        <c:crossAx val="1483185952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3265,7 +3257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1422847840"/>
+        <c:axId val="1483185952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -3359,12 +3351,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422845088"/>
+        <c:crossAx val="1483267424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1422851600"/>
+        <c:axId val="1483189344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -3459,13 +3451,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422855360"/>
+        <c:crossAx val="1483192736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.8"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1422855360"/>
+        <c:axId val="1483192736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3475,7 +3467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1422851600"/>
+        <c:crossAx val="1483189344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3561,7 +3553,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Explicit Revenue </c:v>
+                  <c:v>Revenue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3627,7 +3619,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implicit cost of charging</c:v>
+                  <c:v>Implicit charging cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3669,16 +3661,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-4.93220235438736</c:v>
+                  <c:v>-5.991110293441185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.02891220447338</c:v>
+                  <c:v>-6.108583044292965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.02891220447338</c:v>
+                  <c:v>-6.108583044292965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.02891220447338</c:v>
+                  <c:v>-6.108583044292965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3693,73 +3685,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Germany_EV!$B$6:$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DA+ID</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DA+ID+SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DA+ID+SCR+PCR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Germany_EV!$B$9:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11.0989896120155</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.5146376776063</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.841404497468</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59.6199266690009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Germany_EV!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit</c:v>
+                  <c:v>Proft</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3796,21 +3722,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Germany_EV!$B$10:$E$10</c:f>
+              <c:f>Germany_EV!$B$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.84225558903701</c:v>
+                  <c:v>5.107879318574315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.27973036200148</c:v>
+                  <c:v>12.40605463331333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.8146837760225</c:v>
+                  <c:v>24.73282145317503</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.3924300999242</c:v>
+                  <c:v>53.51134362470794</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3826,11 +3752,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1185552048"/>
-        <c:axId val="1184893024"/>
+        <c:axId val="1483605600"/>
+        <c:axId val="1483607648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1185552048"/>
+        <c:axId val="1483605600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3870,7 +3796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184893024"/>
+        <c:crossAx val="1483607648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3878,7 +3804,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1184893024"/>
+        <c:axId val="1483607648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3898,6 +3824,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3925,7 +3852,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185552048"/>
+        <c:crossAx val="1483605600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4035,7 +3962,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Explicit Revenue </c:v>
+                  <c:v>Revenue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4157,7 +4084,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implicit cost of charging</c:v>
+                  <c:v>Implicit charging cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4199,7 +4126,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -4255,16 +4182,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-4.93220235438736</c:v>
+                  <c:v>-5.991110293441185</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.02891220447338</c:v>
+                  <c:v>-6.108583044292965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.02891220447338</c:v>
+                  <c:v>-6.108583044292965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.02891220447338</c:v>
+                  <c:v>-6.108583044292965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4279,129 +4206,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" charset="0"/>
-                    <a:ea typeface="Helvetica" charset="0"/>
-                    <a:cs typeface="Helvetica" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Germany_EV!$B$6:$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DA+ID</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DA+ID+SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DA+ID+SCR+PCR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Germany_EV!$B$9:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11.0989896120155</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.5146376776063</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30.841404497468</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>59.6199266690009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Germany_EV!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit</c:v>
+                  <c:v>Proft</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4494,22 +4299,128 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Germany_EV!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.107879318574315</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.40605463331333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.73282145317503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.51134362470794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Germany_EV!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" charset="0"/>
+                    <a:ea typeface="Helvetica" charset="0"/>
+                    <a:cs typeface="Helvetica" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Germany_EV!$B$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DA+ID</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DA+ID+SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DA+ID+SCR+PCR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Germany_EV!$B$10:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.84225558903701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.27973036200148</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.8146837760225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51.3924300999242</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4525,11 +4436,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1508694160"/>
-        <c:axId val="1528471072"/>
+        <c:axId val="1482813024"/>
+        <c:axId val="1482817792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1508694160"/>
+        <c:axId val="1482813024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,7 +4480,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1528471072"/>
+        <c:crossAx val="1482817792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4577,9 +4488,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1528471072"/>
+        <c:axId val="1482817792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="80.0"/>
           <c:min val="-20.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4663,9 +4575,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1508694160"/>
+        <c:crossAx val="1482813024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4746,7 +4659,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Explicit Revenue </c:v>
+                  <c:v>Revenue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4868,7 +4781,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implicit cost of charging</c:v>
+                  <c:v>Implicit charging cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4910,7 +4823,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -4966,16 +4879,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-8.52753599132018</c:v>
+                  <c:v>-10.35833588819461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.69474257938528</c:v>
+                  <c:v>-10.56144051345332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.69474257938528</c:v>
+                  <c:v>-10.56144051345332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-8.69474257938528</c:v>
+                  <c:v>-10.56144051345332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4990,129 +4903,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" charset="0"/>
-                    <a:ea typeface="Helvetica" charset="0"/>
-                    <a:cs typeface="Helvetica" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Germany_EV!$B$6:$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DA+ID</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DA+ID+SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DA+ID+SCR+PCR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Germany_EV!$B$13:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>19.1025984239683</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>31.7620058650913</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53.3051269125869</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90.05288948753589</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Germany_EV!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit</c:v>
+                  <c:v>Proft</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5205,22 +4996,128 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Germany_EV!$B$13:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.744262535773695</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.20056535163798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.74368639913358</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>79.49144897408257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Germany_EV!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" charset="0"/>
+                    <a:ea typeface="Helvetica" charset="0"/>
+                    <a:cs typeface="Helvetica" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Germany_EV!$B$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DA+ID</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DA+ID+SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DA+ID+SCR+PCR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Germany_EV!$B$14:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3.16392686161166</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.04871201704546</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35.9767730555446</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75.13415198788411</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5236,11 +5133,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1188748128"/>
-        <c:axId val="1188749904"/>
+        <c:axId val="1482723008"/>
+        <c:axId val="1482737552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1188748128"/>
+        <c:axId val="1482723008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5280,7 +5177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1188749904"/>
+        <c:crossAx val="1482737552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5288,7 +5185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1188749904"/>
+        <c:axId val="1482737552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -5375,7 +5272,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1188748128"/>
+        <c:crossAx val="1482723008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30.0"/>
@@ -5459,7 +5356,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Explicit Revenue </c:v>
+                  <c:v>Revenue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5581,14 +5478,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implicit cost of charging</c:v>
+                  <c:v>Implicit charging cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:alpha val="80000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5623,7 +5522,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -5679,16 +5578,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-58.2168613568665</c:v>
+                  <c:v>-70.71559767143506</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-59.5589470813234</c:v>
+                  <c:v>-72.34581943054878</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-59.5589470813234</c:v>
+                  <c:v>-72.34581943054878</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-59.5589470813234</c:v>
+                  <c:v>-72.34581943054878</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5703,129 +5602,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" charset="0"/>
-                    <a:ea typeface="Helvetica" charset="0"/>
-                    <a:cs typeface="Helvetica" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Germany_EV!$B$6:$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DA+ID</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DA+ID+SCR</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DA+ID+SCR+PCR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Germany_EV!$B$17:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>117.422962661163</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>171.486144723598</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>263.588071896627</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>340.40682738036</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Germany_EV!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit</c:v>
+                  <c:v>Proft</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5918,22 +5695,128 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Germany_EV!$B$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>46.70736498972794</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.14032529304923</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>191.2422524660782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>268.0610079498112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Germany_EV!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" charset="0"/>
+                    <a:ea typeface="Helvetica" charset="0"/>
+                    <a:cs typeface="Helvetica" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Germany_EV!$B$6:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DA+ID</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DA+ID+SCR</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DA+ID+SCR+PCR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Germany_EV!$B$18:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16.4177936047433</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42.4292237710694</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150.194262086775</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>230.755158074126</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5949,11 +5832,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1186333584"/>
-        <c:axId val="1165882992"/>
+        <c:axId val="1482746256"/>
+        <c:axId val="1482780192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1186333584"/>
+        <c:axId val="1482746256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5993,7 +5876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1165882992"/>
+        <c:crossAx val="1482780192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6001,11 +5884,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1165882992"/>
+        <c:axId val="1482780192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="500.0"/>
-          <c:min val="-200.0"/>
+          <c:max val="400.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6088,10 +5970,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1186333584"/>
+        <c:crossAx val="1482746256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="200.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -6504,8 +6385,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1423949216"/>
-        <c:axId val="1442842800"/>
+        <c:axId val="1482860816"/>
+        <c:axId val="1482863136"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -6638,11 +6519,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1442847760"/>
-        <c:axId val="1442845280"/>
+        <c:axId val="1482867776"/>
+        <c:axId val="1482865456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1423949216"/>
+        <c:axId val="1482860816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6651,7 +6532,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1442842800"/>
+        <c:crossAx val="1482863136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6659,7 +6540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1442842800"/>
+        <c:axId val="1482863136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800.0"/>
@@ -6700,12 +6581,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423949216"/>
+        <c:crossAx val="1482860816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1442845280"/>
+        <c:axId val="1482865456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160000.0"/>
@@ -6745,12 +6626,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1442847760"/>
+        <c:crossAx val="1482867776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1442847760"/>
+        <c:axId val="1482867776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6759,7 +6640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1442845280"/>
+        <c:crossAx val="1482865456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6913,7 +6794,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7016,9 +6896,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7055,7 +6933,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7216,7 +7093,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7300,8 +7176,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1442885392"/>
-        <c:axId val="1442888144"/>
+        <c:axId val="1482907312"/>
+        <c:axId val="1482909632"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -7397,11 +7273,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1442896176"/>
-        <c:axId val="1442891904"/>
+        <c:axId val="1482916928"/>
+        <c:axId val="1482913024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1442885392"/>
+        <c:axId val="1482907312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7441,7 +7317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1442888144"/>
+        <c:crossAx val="1482909632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7449,7 +7325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1442888144"/>
+        <c:axId val="1482909632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800.0"/>
@@ -7480,7 +7356,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7507,6 +7382,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7536,13 +7412,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1442885392"/>
+        <c:crossAx val="1482907312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1442891904"/>
+        <c:axId val="1482913024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80000.0"/>
@@ -7573,7 +7449,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7630,13 +7505,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1442896176"/>
+        <c:crossAx val="1482916928"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1442896176"/>
+        <c:axId val="1482916928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7646,7 +7521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1442891904"/>
+        <c:crossAx val="1482913024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7787,7 +7662,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7924,7 +7798,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8062,7 +7935,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8146,8 +8018,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1442930496"/>
-        <c:axId val="1442933248"/>
+        <c:axId val="1483254784"/>
+        <c:axId val="1483174672"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -8254,11 +8126,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1442938208"/>
-        <c:axId val="1442935728"/>
+        <c:axId val="1381899376"/>
+        <c:axId val="1381853456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1442930496"/>
+        <c:axId val="1483254784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8301,7 +8173,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1442933248"/>
+        <c:crossAx val="1483174672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8309,7 +8181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1442933248"/>
+        <c:axId val="1483174672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -8348,12 +8220,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1442930496"/>
+        <c:crossAx val="1483254784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1442935728"/>
+        <c:axId val="1381853456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30000.0"/>
@@ -8393,13 +8265,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1442938208"/>
+        <c:crossAx val="1381899376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1442938208"/>
+        <c:axId val="1381899376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8409,7 +8281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1442935728"/>
+        <c:crossAx val="1381853456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8428,7 +8300,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8888,8 +8759,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1423765888"/>
-        <c:axId val="1423768640"/>
+        <c:axId val="1446938656"/>
+        <c:axId val="1526739120"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -8979,11 +8850,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1423776432"/>
-        <c:axId val="1423772400"/>
+        <c:axId val="1483481200"/>
+        <c:axId val="1483478080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1423765888"/>
+        <c:axId val="1446938656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9023,7 +8894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423768640"/>
+        <c:crossAx val="1526739120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9031,7 +8902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1423768640"/>
+        <c:axId val="1526739120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -9117,13 +8988,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423765888"/>
+        <c:crossAx val="1446938656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1423772400"/>
+        <c:axId val="1483478080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30000.0"/>
@@ -9210,13 +9081,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423776432"/>
+        <c:crossAx val="1483481200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1423776432"/>
+        <c:axId val="1483481200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9226,7 +9097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1423772400"/>
+        <c:crossAx val="1483478080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9371,9 +9242,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9420,9 +9289,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9459,7 +9326,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9556,40 +9422,6 @@
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:latin typeface="Helvetica" charset="0"/>
-                      <a:ea typeface="Helvetica" charset="0"/>
-                      <a:cs typeface="Helvetica" charset="0"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="ctr"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -9690,7 +9522,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9812,7 +9643,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9896,8 +9726,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1424112384"/>
-        <c:axId val="1424115136"/>
+        <c:axId val="1527041952"/>
+        <c:axId val="1527606368"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -9930,9 +9760,7 @@
               <c:idx val="2"/>
               <c:delete val="1"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9971,7 +9799,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10055,11 +9882,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1424123168"/>
-        <c:axId val="1424119408"/>
+        <c:axId val="1527294448"/>
+        <c:axId val="1527610272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1424112384"/>
+        <c:axId val="1527041952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10096,7 +9923,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1424115136"/>
+        <c:crossAx val="1527606368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10104,7 +9931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1424115136"/>
+        <c:axId val="1527606368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10197,13 +10024,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1424112384"/>
+        <c:crossAx val="1527041952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1424119408"/>
+        <c:axId val="1527610272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -10297,12 +10124,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1424123168"/>
+        <c:crossAx val="1527294448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1424123168"/>
+        <c:axId val="1527294448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10312,7 +10139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1424119408"/>
+        <c:crossAx val="1527610272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10523,7 +10350,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10720,7 +10546,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10842,7 +10667,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10926,8 +10750,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1424169888"/>
-        <c:axId val="1424172640"/>
+        <c:axId val="1507125696"/>
+        <c:axId val="1507480080"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -10992,7 +10816,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11076,11 +10899,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1424180672"/>
-        <c:axId val="1424176912"/>
+        <c:axId val="1507321184"/>
+        <c:axId val="1507401136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1424169888"/>
+        <c:axId val="1507125696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11117,7 +10940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1424172640"/>
+        <c:crossAx val="1507480080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11125,7 +10948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1424172640"/>
+        <c:axId val="1507480080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60.0"/>
@@ -11219,13 +11042,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1424169888"/>
+        <c:crossAx val="1507125696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1424176912"/>
+        <c:axId val="1507401136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.0"/>
@@ -11320,12 +11143,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1424180672"/>
+        <c:crossAx val="1507321184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1424180672"/>
+        <c:axId val="1507321184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11335,7 +11158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1424176912"/>
+        <c:crossAx val="1507401136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11452,16 +11275,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.48755627201334E-17"/>
+                  <c:x val="-8.48755627201336E-17"/>
                   <c:y val="-0.104166666666667"/>
                 </c:manualLayout>
               </c:layout>
@@ -11473,9 +11294,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -11513,7 +11332,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11678,7 +11496,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11839,7 +11656,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11923,8 +11739,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1424210272"/>
-        <c:axId val="1424213024"/>
+        <c:axId val="1507822256"/>
+        <c:axId val="1507824304"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -12020,11 +11836,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1424221056"/>
-        <c:axId val="1424216784"/>
+        <c:axId val="1507783616"/>
+        <c:axId val="1507786992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1424210272"/>
+        <c:axId val="1507822256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12061,7 +11877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1424213024"/>
+        <c:crossAx val="1507824304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12069,7 +11885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1424213024"/>
+        <c:axId val="1507824304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -12164,13 +11980,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1424210272"/>
+        <c:crossAx val="1507822256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1424216784"/>
+        <c:axId val="1507786992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -12265,13 +12081,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1424221056"/>
+        <c:crossAx val="1507783616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.9"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1424221056"/>
+        <c:axId val="1507783616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12281,7 +12097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1424216784"/>
+        <c:crossAx val="1507786992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12411,7 +12227,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12503,7 +12318,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12599,7 +12413,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12653,8 +12466,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1502172304"/>
-        <c:axId val="1502175056"/>
+        <c:axId val="1507579216"/>
+        <c:axId val="1507566656"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -12720,11 +12533,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1502183088"/>
-        <c:axId val="1502178816"/>
+        <c:axId val="1507573440"/>
+        <c:axId val="1507570048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1502172304"/>
+        <c:axId val="1507579216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12764,7 +12577,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502175056"/>
+        <c:crossAx val="1507566656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12772,7 +12585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1502175056"/>
+        <c:axId val="1507566656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000.0"/>
@@ -12803,7 +12616,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12859,13 +12671,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502172304"/>
+        <c:crossAx val="1507579216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1502178816"/>
+        <c:axId val="1507570048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80000.0"/>
@@ -12896,7 +12708,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12953,13 +12764,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502183088"/>
+        <c:crossAx val="1507573440"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="40000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1502183088"/>
+        <c:axId val="1507573440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12969,7 +12780,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1502178816"/>
+        <c:crossAx val="1507570048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13110,7 +12921,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13217,7 +13027,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13325,7 +13134,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13379,8 +13187,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1503028352"/>
-        <c:axId val="1503031104"/>
+        <c:axId val="1507447296"/>
+        <c:axId val="1507426000"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -13457,11 +13265,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1503036064"/>
-        <c:axId val="1503033584"/>
+        <c:axId val="1507419008"/>
+        <c:axId val="1507423728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1503028352"/>
+        <c:axId val="1507447296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13504,7 +13312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1503031104"/>
+        <c:crossAx val="1507426000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13512,13 +13320,14 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1503031104"/>
+        <c:axId val="1507426000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -13551,12 +13360,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1503028352"/>
+        <c:crossAx val="1507447296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1503033584"/>
+        <c:axId val="1507423728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30000.0"/>
@@ -13596,13 +13405,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1503036064"/>
+        <c:crossAx val="1507419008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1503036064"/>
+        <c:axId val="1507419008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13612,7 +13421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1503033584"/>
+        <c:crossAx val="1507423728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13631,7 +13440,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13773,7 +13581,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13869,7 +13676,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13965,7 +13771,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14008,8 +13813,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1502126880"/>
-        <c:axId val="1502129200"/>
+        <c:axId val="1507361344"/>
+        <c:axId val="1507363392"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -14086,7 +13891,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14128,11 +13932,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1502133840"/>
-        <c:axId val="1502131520"/>
+        <c:axId val="1507347936"/>
+        <c:axId val="1507352848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1502126880"/>
+        <c:axId val="1507361344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14141,7 +13945,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1502129200"/>
+        <c:crossAx val="1507363392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14149,7 +13953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1502129200"/>
+        <c:axId val="1507363392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800.0"/>
@@ -14190,12 +13994,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502126880"/>
+        <c:crossAx val="1507361344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1502131520"/>
+        <c:axId val="1507352848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160000.0"/>
@@ -14235,12 +14039,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1502133840"/>
+        <c:crossAx val="1507347936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1502133840"/>
+        <c:axId val="1507347936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14249,7 +14053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1502131520"/>
+        <c:crossAx val="1507352848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14268,7 +14072,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14414,7 +14217,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14505,7 +14307,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14597,7 +14398,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14651,8 +14451,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1503092032"/>
-        <c:axId val="1503094784"/>
+        <c:axId val="1446061328"/>
+        <c:axId val="1527211584"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -14717,7 +14517,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14771,11 +14570,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1503102816"/>
-        <c:axId val="1503099056"/>
+        <c:axId val="1526792608"/>
+        <c:axId val="1527214704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1503092032"/>
+        <c:axId val="1446061328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14812,7 +14611,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1503094784"/>
+        <c:crossAx val="1527211584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14820,7 +14619,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1503094784"/>
+        <c:axId val="1527211584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14913,13 +14712,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1503092032"/>
+        <c:crossAx val="1446061328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1503099056"/>
+        <c:axId val="1527214704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -15013,12 +14812,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1503102816"/>
+        <c:crossAx val="1526792608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1503102816"/>
+        <c:axId val="1526792608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15028,7 +14827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1503099056"/>
+        <c:crossAx val="1527214704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15163,7 +14962,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15254,7 +15052,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15346,7 +15143,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15400,8 +15196,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1479546512"/>
-        <c:axId val="1479548288"/>
+        <c:axId val="1446949344"/>
+        <c:axId val="1446934912"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -15466,7 +15262,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15520,11 +15315,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1444891536"/>
-        <c:axId val="1444913856"/>
+        <c:axId val="1446960720"/>
+        <c:axId val="1446223136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1479546512"/>
+        <c:axId val="1446949344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15561,7 +15356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1479548288"/>
+        <c:crossAx val="1446934912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15569,7 +15364,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1479548288"/>
+        <c:axId val="1446934912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60.0"/>
@@ -15663,13 +15458,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1479546512"/>
+        <c:crossAx val="1446949344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1444913856"/>
+        <c:axId val="1446223136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.0"/>
@@ -15764,12 +15559,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1444891536"/>
+        <c:crossAx val="1446960720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1444891536"/>
+        <c:axId val="1446960720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15779,7 +15574,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1444913856"/>
+        <c:crossAx val="1446223136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15915,7 +15710,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16050,7 +15844,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16146,7 +15939,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16200,8 +15992,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1503125456"/>
-        <c:axId val="1503128208"/>
+        <c:axId val="1507264704"/>
+        <c:axId val="1507244864"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -16267,11 +16059,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1503136240"/>
-        <c:axId val="1503131968"/>
+        <c:axId val="1507233328"/>
+        <c:axId val="1507241104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1503125456"/>
+        <c:axId val="1507264704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16308,7 +16100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1503128208"/>
+        <c:crossAx val="1507244864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16316,7 +16108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1503128208"/>
+        <c:axId val="1507244864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -16411,13 +16203,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1503125456"/>
+        <c:crossAx val="1507264704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1503131968"/>
+        <c:axId val="1507241104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -16512,13 +16304,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1503136240"/>
+        <c:crossAx val="1507233328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.9"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1503136240"/>
+        <c:axId val="1507233328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16528,7 +16320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1503131968"/>
+        <c:crossAx val="1507241104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16614,7 +16406,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Explicit Revenue </c:v>
+                  <c:v>Revenue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16680,7 +16472,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implicit cost of charging</c:v>
+                  <c:v>Implicit charging cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16722,16 +16514,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-2.10315661642041</c:v>
+                  <c:v>-3.081945366074832</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.10315661642041</c:v>
+                  <c:v>-3.081945366074832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.10315661642041</c:v>
+                  <c:v>-3.081945366074832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.10315661642041</c:v>
+                  <c:v>-3.081945366074832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16746,73 +16538,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>PJM_EV!$B$6:$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DA+RT</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DA+RT+RegD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DA+RT+RegD+RegA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PJM_EV!$B$9:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6.098915891042791</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.1383394664258</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>53.1032367699009</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>68.4730027337292</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PJM_EV!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit</c:v>
+                  <c:v>Proft</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -16849,21 +16575,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PJM_EV!$B$10:$E$10</c:f>
+              <c:f>PJM_EV!$B$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-0.11889166286025</c:v>
+                  <c:v>3.016970524967959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.04768980377736</c:v>
+                  <c:v>10.05639410035097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.75489429937809</c:v>
+                  <c:v>50.02129140382608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.7429724666319</c:v>
+                  <c:v>65.39105736765437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16879,11 +16605,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1482338192"/>
-        <c:axId val="1482320800"/>
+        <c:axId val="1507169488"/>
+        <c:axId val="1507158256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1482338192"/>
+        <c:axId val="1507169488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16923,7 +16649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1482320800"/>
+        <c:crossAx val="1507158256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16931,7 +16657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1482320800"/>
+        <c:axId val="1507158256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16978,7 +16704,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1482338192"/>
+        <c:crossAx val="1507169488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17484,8 +17210,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1422563760"/>
-        <c:axId val="1422566512"/>
+        <c:axId val="1425410704"/>
+        <c:axId val="1425456000"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -17586,11 +17312,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1422571472"/>
-        <c:axId val="1422568992"/>
+        <c:axId val="1425910720"/>
+        <c:axId val="1425458320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1422563760"/>
+        <c:axId val="1425410704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17633,7 +17359,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422566512"/>
+        <c:crossAx val="1425456000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17641,7 +17367,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1422566512"/>
+        <c:axId val="1425456000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -17680,12 +17406,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422563760"/>
+        <c:crossAx val="1425410704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1422568992"/>
+        <c:axId val="1425458320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30000.0"/>
@@ -17725,13 +17451,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422571472"/>
+        <c:crossAx val="1425910720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1422571472"/>
+        <c:axId val="1425910720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17741,7 +17467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1422568992"/>
+        <c:crossAx val="1425458320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17847,7 +17573,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Explicit Revenue </c:v>
+                  <c:v>Revenue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -17990,7 +17716,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implicit cost of charging</c:v>
+                  <c:v>Implicit charging cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18088,16 +17814,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-2.10315661642041</c:v>
+                  <c:v>-3.081945366074832</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.10315661642041</c:v>
+                  <c:v>-3.081945366074832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.10315661642041</c:v>
+                  <c:v>-3.081945366074832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.10315661642041</c:v>
+                  <c:v>-3.081945366074832</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18112,14 +17838,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total revenue</c:v>
+                  <c:v>Proft</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -18231,138 +17957,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.098915891042791</c:v>
+                  <c:v>3.016970524967959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.1383394664258</c:v>
+                  <c:v>10.05639410035097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.1032367699009</c:v>
+                  <c:v>50.02129140382608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.4730027337292</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PJM_EV!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" charset="0"/>
-                    <a:ea typeface="Helvetica" charset="0"/>
-                    <a:cs typeface="Helvetica" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>PJM_EV!$B$6:$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DA+RT</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DA+RT+RegD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DA+RT+RegD+RegA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PJM_EV!$B$10:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>-0.11889166286025</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.04768980377736</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>46.75489429937809</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>63.7429724666319</c:v>
+                  <c:v>65.39105736765437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18379,11 +17983,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1187749936"/>
-        <c:axId val="1187752256"/>
+        <c:axId val="1507114416"/>
+        <c:axId val="1507112368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1187749936"/>
+        <c:axId val="1507114416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18423,7 +18027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187752256"/>
+        <c:crossAx val="1507112368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18431,7 +18035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187752256"/>
+        <c:axId val="1507112368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-20.0"/>
@@ -18517,7 +18121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187749936"/>
+        <c:crossAx val="1507114416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18600,7 +18204,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Explicit Revenue </c:v>
+                  <c:v>Revenue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18722,7 +18326,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implicit cost of charging</c:v>
+                  <c:v>Implicit charging cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18820,16 +18424,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-3.63625464919432</c:v>
+                  <c:v>-5.328532396710645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.63625464919432</c:v>
+                  <c:v>-5.328532396710645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-3.63625464919432</c:v>
+                  <c:v>-5.328532396710645</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.63625464919432</c:v>
+                  <c:v>-5.328532396710645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18844,129 +18448,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" charset="0"/>
-                    <a:ea typeface="Helvetica" charset="0"/>
-                    <a:cs typeface="Helvetica" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>PJM_EV!$B$6:$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DA+RT</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DA+RT+RegD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DA+RT+RegD+RegA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PJM_EV!$B$13:$E$13</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10.458538769752</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22.7038867373042</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>62.9150938620943</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>83.62604473741909</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PJM_EV!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit</c:v>
+                  <c:v>Proft</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19059,21 +18541,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PJM_EV!$B$14:$E$14</c:f>
+              <c:f>PJM_EV!$B$13:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-0.246995981314108</c:v>
+                  <c:v>5.130006373041355</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.99193134412133</c:v>
+                  <c:v>17.37535434059355</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.9383209693912</c:v>
+                  <c:v>57.58656146538365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.67429531893191</c:v>
+                  <c:v>78.29751234070845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19090,11 +18572,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1482280288"/>
-        <c:axId val="1482282336"/>
+        <c:axId val="1507048656"/>
+        <c:axId val="1507044000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1482280288"/>
+        <c:axId val="1507048656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19134,7 +18616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1482282336"/>
+        <c:crossAx val="1507044000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19142,11 +18624,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1482282336"/>
+        <c:axId val="1507044000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
-          <c:min val="-30.0"/>
+          <c:min val="-40.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -19229,10 +18711,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1482280288"/>
+        <c:crossAx val="1507048656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="30.0"/>
+        <c:majorUnit val="40.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -19313,7 +18795,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Explicit Revenue </c:v>
+                  <c:v>Revenue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19435,7 +18917,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implicit cost of charging</c:v>
+                  <c:v>Implicit charging cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19533,16 +19015,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-23.7736660671992</c:v>
+                  <c:v>-34.83770033974918</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-25.3209320541826</c:v>
+                  <c:v>-37.10504895346529</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-25.3209320541826</c:v>
+                  <c:v>-37.10504895346529</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-25.3209320541826</c:v>
+                  <c:v>-37.10504895346529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19557,129 +19039,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" charset="0"/>
-                    <a:ea typeface="Helvetica" charset="0"/>
-                    <a:cs typeface="Helvetica" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>PJM_EV!$B$6:$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>DA+RT</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DA+RT+RegD</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>DA+RT+RegD+RegA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PJM_EV!$B$17:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>62.2310884937482</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>157.128491090846</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>198.05032851148</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>231.529911449772</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>PJM_EV!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit</c:v>
+                  <c:v>Proft</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -19772,21 +19132,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PJM_EV!$B$18:$E$18</c:f>
+              <c:f>PJM_EV!$B$17:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-3.82219872485506</c:v>
+                  <c:v>27.39338815399903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.0972870376945</c:v>
+                  <c:v>120.0234421373807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.6738942788693</c:v>
+                  <c:v>160.9452795580147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>132.161597495664</c:v>
+                  <c:v>194.4248624963067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19803,11 +19163,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1637723120"/>
-        <c:axId val="1637725440"/>
+        <c:axId val="1506995488"/>
+        <c:axId val="1506989616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1637723120"/>
+        <c:axId val="1506995488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19847,7 +19207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1637725440"/>
+        <c:crossAx val="1506989616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19855,11 +19215,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1637725440"/>
+        <c:axId val="1506989616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="500.0"/>
-          <c:min val="-200.0"/>
+          <c:max val="300.0"/>
+          <c:min val="-100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -19913,6 +19273,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -19942,10 +19303,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1637723120"/>
+        <c:crossAx val="1506995488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="200.0"/>
+        <c:majorUnit val="100.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -20026,7 +19387,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Explicit Revenue </c:v>
+                  <c:v>Revenue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20059,7 +19420,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>2.88366625945555</c:v>
+                  <c:v>2.72042646889412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20074,7 +19435,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implicit cost of charging</c:v>
+                  <c:v>Implicit charging cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20107,7 +19468,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>-0.559016333583545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20122,55 +19483,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>NSW_EV!$B$6:$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>NSW_EV!$B$9:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.88366625945555</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>NSW_EV!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit</c:v>
+                  <c:v>Proft</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20198,12 +19511,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NSW_EV!$B$10:$E$10</c:f>
+              <c:f>NSW_EV!$B$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.55682399935613</c:v>
+                  <c:v>1.57868640945988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20219,11 +19532,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1142930128"/>
-        <c:axId val="1637189296"/>
+        <c:axId val="1506930272"/>
+        <c:axId val="1506918816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1142930128"/>
+        <c:axId val="1506930272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20263,7 +19576,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1637189296"/>
+        <c:crossAx val="1506918816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20271,7 +19584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1637189296"/>
+        <c:axId val="1506918816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20318,7 +19631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1142930128"/>
+        <c:crossAx val="1506930272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20428,7 +19741,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Explicit Revenue </c:v>
+                  <c:v>Revenue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20517,7 +19830,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.88366625945555</c:v>
+                  <c:v>2.72042646889412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20532,7 +19845,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implicit cost of charging</c:v>
+                  <c:v>Implicit charging cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20621,7 +19934,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>-0.559016333583545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20636,111 +19949,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" charset="0"/>
-                    <a:ea typeface="Helvetica" charset="0"/>
-                    <a:cs typeface="Helvetica" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>NSW_EV!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>NSW_EV!$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.88366625945555</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>NSW_EV!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit</c:v>
+                  <c:v>Proft</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -20824,12 +20033,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NSW_EV!$B$10</c:f>
+              <c:f>NSW_EV!$B$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.55682399935613</c:v>
+                  <c:v>1.57868640945988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20846,11 +20055,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1141294816"/>
-        <c:axId val="1141276656"/>
+        <c:axId val="1145956384"/>
+        <c:axId val="1145469408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1141294816"/>
+        <c:axId val="1145956384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20890,7 +20099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1141276656"/>
+        <c:crossAx val="1145469408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20898,7 +20107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1141276656"/>
+        <c:axId val="1145469408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -20984,10 +20193,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1141294816"/>
+        <c:crossAx val="1145956384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.0"/>
+        <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -21068,7 +20277,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Explicit Revenue </c:v>
+                  <c:v>Revenue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -21157,7 +20366,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.98571754514263</c:v>
+                  <c:v>4.70348395268065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21172,7 +20381,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implicit cost of charging</c:v>
+                  <c:v>Implicit charging cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -21188,6 +20397,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.48755627201334E-17"/>
+                  <c:y val="0.0208333333333333"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -21224,7 +20454,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -21261,7 +20490,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>-0.966511826127549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21276,111 +20505,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" charset="0"/>
-                    <a:ea typeface="Helvetica" charset="0"/>
-                    <a:cs typeface="Helvetica" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>NSW_EV!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>NSW_EV!$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.98571754514263</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>NSW_EV!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit</c:v>
+                  <c:v>Proft</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -21464,12 +20589,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NSW_EV!$B$14</c:f>
+              <c:f>NSW_EV!$B$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.69167234690829</c:v>
+                  <c:v>2.72947138182642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21486,11 +20611,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1581796912"/>
-        <c:axId val="1582362464"/>
+        <c:axId val="1145900096"/>
+        <c:axId val="1145733584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1581796912"/>
+        <c:axId val="1145900096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21530,7 +20655,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1582362464"/>
+        <c:crossAx val="1145733584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21538,7 +20663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1582362464"/>
+        <c:axId val="1145733584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21623,9 +20748,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1581796912"/>
+        <c:crossAx val="1145900096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -21706,7 +20832,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Explicit Revenue </c:v>
+                  <c:v>Revenue</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -21722,6 +20848,27 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="0.0138888888888889"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -21758,7 +20905,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -21795,7 +20941,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>34.7178697261684</c:v>
+                  <c:v>32.7525459775358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21810,7 +20956,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implicit cost of charging</c:v>
+                  <c:v>Implicit charging cost</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -21899,7 +21045,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>-6.73027129284306</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21914,111 +21060,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" charset="0"/>
-                    <a:ea typeface="Helvetica" charset="0"/>
-                    <a:cs typeface="Helvetica" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>NSW_EV!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>RT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>NSW_EV!$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>34.7178697261684</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>NSW_EV!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Profit</c:v>
+                  <c:v>Proft</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -22102,12 +21144,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>NSW_EV!$B$18</c:f>
+              <c:f>NSW_EV!$B$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18.7433662335195</c:v>
+                  <c:v>19.006578490969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22124,11 +21166,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1583195280"/>
-        <c:axId val="1583197056"/>
+        <c:axId val="1145580992"/>
+        <c:axId val="1145583824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1583195280"/>
+        <c:axId val="1145580992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22168,7 +21210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1583197056"/>
+        <c:crossAx val="1145583824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22176,11 +21218,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1583197056"/>
+        <c:axId val="1145583824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100.0"/>
-          <c:min val="-25.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -22263,10 +21303,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1583195280"/>
+        <c:crossAx val="1145580992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="25.0"/>
+        <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -22783,8 +21823,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1422617968"/>
-        <c:axId val="1422620720"/>
+        <c:axId val="1483053760"/>
+        <c:axId val="1483097600"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -22927,11 +21967,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1422628752"/>
-        <c:axId val="1422624480"/>
+        <c:axId val="1483104896"/>
+        <c:axId val="1483100992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1422617968"/>
+        <c:axId val="1483053760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22968,7 +22008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422620720"/>
+        <c:crossAx val="1483097600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22976,7 +22016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1422620720"/>
+        <c:axId val="1483097600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23069,13 +22109,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422617968"/>
+        <c:crossAx val="1483053760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1422624480"/>
+        <c:axId val="1483100992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -23170,13 +22210,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422628752"/>
+        <c:crossAx val="1483104896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1422628752"/>
+        <c:axId val="1483104896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23186,7 +22226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1422624480"/>
+        <c:crossAx val="1483100992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23630,8 +22670,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1422667792"/>
-        <c:axId val="1422670544"/>
+        <c:axId val="1483466928"/>
+        <c:axId val="1483056192"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -23774,11 +22814,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1422678576"/>
-        <c:axId val="1422674304"/>
+        <c:axId val="1483063488"/>
+        <c:axId val="1483059584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1422667792"/>
+        <c:axId val="1483466928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23815,7 +22855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422670544"/>
+        <c:crossAx val="1483056192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23823,7 +22863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1422670544"/>
+        <c:axId val="1483056192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30.0"/>
@@ -23917,13 +22957,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422667792"/>
+        <c:crossAx val="1483466928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1422674304"/>
+        <c:axId val="1483059584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -24018,13 +23058,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422678576"/>
+        <c:crossAx val="1483063488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1422678576"/>
+        <c:axId val="1483063488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24034,7 +23074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1422674304"/>
+        <c:crossAx val="1483059584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24231,7 +23271,7 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.48755627201334E-17"/>
+                  <c:x val="-8.48755627201336E-17"/>
                   <c:y val="-0.0625"/>
                 </c:manualLayout>
               </c:layout>
@@ -24681,8 +23721,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1422719456"/>
-        <c:axId val="1422722208"/>
+        <c:axId val="1145633840"/>
+        <c:axId val="1146071872"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -24772,11 +23812,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1422730240"/>
-        <c:axId val="1422725968"/>
+        <c:axId val="1145627408"/>
+        <c:axId val="1145421968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1422719456"/>
+        <c:axId val="1145633840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24813,7 +23853,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422722208"/>
+        <c:crossAx val="1146071872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24821,7 +23861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1422722208"/>
+        <c:axId val="1146071872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -24916,13 +23956,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422719456"/>
+        <c:crossAx val="1145633840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1422725968"/>
+        <c:axId val="1145421968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -25017,13 +24057,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422730240"/>
+        <c:crossAx val="1145627408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.9"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1422730240"/>
+        <c:axId val="1145627408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25033,7 +24073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1422725968"/>
+        <c:crossAx val="1145421968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25174,7 +24214,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -25282,7 +24321,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -25390,7 +24428,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -25445,8 +24482,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1423834592"/>
-        <c:axId val="1423837344"/>
+        <c:axId val="1446536272"/>
+        <c:axId val="1446538592"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -25523,7 +24560,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -25577,11 +24613,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1423842304"/>
-        <c:axId val="1423839824"/>
+        <c:axId val="1446107968"/>
+        <c:axId val="1446105648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1423834592"/>
+        <c:axId val="1446536272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25590,7 +24626,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1423837344"/>
+        <c:crossAx val="1446538592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25598,7 +24634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1423837344"/>
+        <c:axId val="1446538592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800.0"/>
@@ -25639,12 +24675,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423834592"/>
+        <c:crossAx val="1446536272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1423839824"/>
+        <c:axId val="1446105648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160000.0"/>
@@ -25684,12 +24720,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423842304"/>
+        <c:crossAx val="1446107968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1423842304"/>
+        <c:axId val="1446107968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25698,7 +24734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1423839824"/>
+        <c:crossAx val="1446105648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25717,7 +24753,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -25835,16 +24870,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.48755627201334E-17"/>
+                  <c:x val="-8.48755627201336E-17"/>
                   <c:y val="0.0277777777777778"/>
                 </c:manualLayout>
               </c:layout>
@@ -25856,9 +24889,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -25895,7 +24926,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -26010,7 +25040,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -26130,7 +25159,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -26208,8 +25236,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1382889520"/>
-        <c:axId val="1422492736"/>
+        <c:axId val="1446359584"/>
+        <c:axId val="1446460400"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -26299,11 +25327,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1422735264"/>
-        <c:axId val="1422689344"/>
+        <c:axId val="1446250688"/>
+        <c:axId val="1446464160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1382889520"/>
+        <c:axId val="1446359584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26343,7 +25371,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422492736"/>
+        <c:crossAx val="1446460400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26351,7 +25379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1422492736"/>
+        <c:axId val="1446460400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-200.0"/>
@@ -26381,7 +25409,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -26437,13 +25464,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382889520"/>
+        <c:crossAx val="1446359584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1422689344"/>
+        <c:axId val="1446464160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150000.0"/>
@@ -26474,7 +25501,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -26531,13 +25557,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422735264"/>
+        <c:crossAx val="1446250688"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1422735264"/>
+        <c:axId val="1446250688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26547,7 +25573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1422689344"/>
+        <c:crossAx val="1446464160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26688,7 +25714,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -26807,7 +25832,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -26992,8 +26016,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1422777376"/>
-        <c:axId val="1422780128"/>
+        <c:axId val="1145160672"/>
+        <c:axId val="1145115008"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -27082,11 +26106,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1382830800"/>
-        <c:axId val="1422782608"/>
+        <c:axId val="1145801504"/>
+        <c:axId val="1145799184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1422777376"/>
+        <c:axId val="1145160672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27129,7 +26153,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422780128"/>
+        <c:crossAx val="1145115008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27137,7 +26161,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1422780128"/>
+        <c:axId val="1145115008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -27176,12 +26200,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1422777376"/>
+        <c:crossAx val="1145160672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1422782608"/>
+        <c:axId val="1145799184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30000.0"/>
@@ -27221,13 +26245,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382830800"/>
+        <c:crossAx val="1145801504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1382830800"/>
+        <c:axId val="1145801504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27237,7 +26261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1422782608"/>
+        <c:crossAx val="1145799184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27256,7 +26280,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -50365,8 +49388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F14" workbookViewId="0">
-      <selection activeCell="O54" sqref="H18:O54"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51109,8 +50132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:O37"/>
+    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51167,7 +50190,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <f>B21/1000000</f>
@@ -51188,234 +50211,189 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" ref="B8:E8" si="1">B22/1000000</f>
-        <v>-4.9322023543873597</v>
+        <f>B22/1000000*1.21469272</f>
+        <v>-5.991110293441186</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="1"/>
-        <v>-5.0289122044733796</v>
+        <f t="shared" ref="C8:E8" si="1">C22/1000000*1.21469272</f>
+        <v>-6.1085830442929652</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
-        <v>-5.0289122044733796</v>
+        <v>-6.1085830442929652</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="1"/>
-        <v>-5.0289122044733796</v>
+        <v>-6.1085830442929652</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" ref="B9:E9" si="2">B23/1000000</f>
-        <v>11.098989612015501</v>
+        <f>(B23+B22*1.21469272)/1000000</f>
+        <v>5.107879318574315</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="2"/>
-        <v>18.514637677606299</v>
+        <f t="shared" ref="C9:E9" si="2">(C23+C22*1.21469272)/1000000</f>
+        <v>12.406054633313333</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="2"/>
-        <v>30.841404497467998</v>
+        <v>24.732821453175031</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="2"/>
-        <v>59.619926669000904</v>
+        <v>53.511343624707941</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3">
-        <f t="shared" ref="B10:E10" si="3">B24/1000000</f>
-        <v>1.84225558903701</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="3"/>
-        <v>5.2797303620014793</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="3"/>
-        <v>20.814683776022502</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="3"/>
-        <v>51.392430099924198</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" ref="B11:E11" si="4">B25/1000000</f>
+        <f t="shared" ref="B11:E11" si="3">B25/1000000</f>
         <v>10.5750624326481</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23.067263285706098</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44.610384333201601</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>81.358146908150601</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" ref="B12:E12" si="5">B26/1000000</f>
-        <v>-8.52753599132018</v>
+        <f>B26/1000000*1.21469272</f>
+        <v>-10.358335888194606</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="5"/>
-        <v>-8.6947425793852808</v>
+        <f t="shared" ref="C12:E12" si="4">C26/1000000*1.21469272</f>
+        <v>-10.561440513453322</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="5"/>
-        <v>-8.6947425793852808</v>
+        <f t="shared" si="4"/>
+        <v>-10.561440513453322</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="5"/>
-        <v>-8.6947425793852808</v>
+        <f t="shared" si="4"/>
+        <v>-10.561440513453322</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" ref="B13:E13" si="6">B27/1000000</f>
-        <v>19.102598423968299</v>
+        <f>(B27+B26*1.21469272)/1000000</f>
+        <v>8.7442625357736947</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="6"/>
-        <v>31.7620058650913</v>
+        <f t="shared" ref="C13:E13" si="5">(C27+C26*1.21469272)/1000000</f>
+        <v>21.20056535163798</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="6"/>
-        <v>53.3051269125869</v>
+        <f t="shared" si="5"/>
+        <v>42.74368639913358</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="6"/>
-        <v>90.052889487535893</v>
+        <f t="shared" si="5"/>
+        <v>79.491448974082573</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3">
-        <f t="shared" ref="B14:E14" si="7">B28/1000000</f>
-        <v>3.1639268616116603</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="7"/>
-        <v>9.0487120170454602</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="7"/>
-        <v>35.976773055544598</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="7"/>
-        <v>75.13415198788411</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" ref="B15:E15" si="8">B29/1000000</f>
+        <f t="shared" ref="B15:E15" si="6">B29/1000000</f>
         <v>59.206101304296396</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>111.927197642275</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>204.02912481530402</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>280.84788029903604</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" ref="B16:E16" si="9">B30/1000000</f>
-        <v>-58.216861356866502</v>
+        <f>B30/1000000*1.21469272</f>
+        <v>-70.715597671435063</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="9"/>
-        <v>-59.558947081323403</v>
+        <f t="shared" ref="C16:E16" si="7">C30/1000000*1.21469272</f>
+        <v>-72.345819430548786</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="9"/>
-        <v>-59.558947081323403</v>
+        <f t="shared" si="7"/>
+        <v>-72.345819430548786</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="9"/>
-        <v>-59.558947081323403</v>
+        <f t="shared" si="7"/>
+        <v>-72.345819430548786</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" ref="B17:E17" si="10">B31/1000000</f>
-        <v>117.422962661163</v>
+        <f>(B31+B30*1.21469272)/1000000</f>
+        <v>46.707364989727942</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="10"/>
-        <v>171.48614472359802</v>
+        <f t="shared" ref="C17:E17" si="8">(C31+C30*1.21469272)/1000000</f>
+        <v>99.14032529304923</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="10"/>
-        <v>263.58807189662701</v>
+        <f t="shared" si="8"/>
+        <v>191.24225246607821</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="10"/>
-        <v>340.40682738036003</v>
+        <f t="shared" si="8"/>
+        <v>268.0610079498112</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3">
-        <f t="shared" ref="B18:E18" si="11">B32/1000000</f>
-        <v>16.417793604743299</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="11"/>
-        <v>42.429223771069402</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="11"/>
-        <v>150.19426208677501</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="11"/>
-        <v>230.755158074126</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21">
@@ -51670,10 +50648,10 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -52037,8 +51015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E14" workbookViewId="0">
-      <selection activeCell="J54" sqref="J18:Q54"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52081,7 +51059,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -52205,8 +51183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="O8" sqref="H8:O37"/>
+    <sheetView showGridLines="0" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -52255,15 +51233,15 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3">
         <f>B21/1000000</f>
@@ -52284,234 +51262,189 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3">
-        <f t="shared" ref="B8:E18" si="1">B22/1000000</f>
-        <v>-2.1031566164204101</v>
+        <f>B22/1000000*1.465390329</f>
+        <v>-3.0819453660748319</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" si="1"/>
-        <v>-2.1031566164204101</v>
+        <f t="shared" ref="C8:E8" si="1">C22/1000000*1.465390329</f>
+        <v>-3.0819453660748319</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
-        <v>-2.1031566164204101</v>
+        <v>-3.0819453660748319</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="1"/>
-        <v>-2.1031566164204101</v>
+        <v>-3.0819453660748319</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3">
-        <f t="shared" si="1"/>
-        <v>6.0989158910427905</v>
+        <f>(B23+B22*1.465390329)/1000000</f>
+        <v>3.0169705249679586</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" si="1"/>
-        <v>13.138339466425801</v>
+        <f t="shared" ref="C9:E9" si="2">(C23+C22*1.465390329)/1000000</f>
+        <v>10.056394100350969</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>53.103236769900903</v>
+        <f t="shared" si="2"/>
+        <v>50.021291403826076</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="1"/>
-        <v>68.473002733729203</v>
+        <f t="shared" si="2"/>
+        <v>65.391057367654369</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3">
-        <f t="shared" si="1"/>
-        <v>-0.11889166286025001</v>
-      </c>
-      <c r="C10" s="3">
-        <f t="shared" si="1"/>
-        <v>4.0476898037773603</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>46.754894299378094</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="1"/>
-        <v>63.742972466631898</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B11:E15" si="3">B25/1000000</f>
         <v>6.8222841205576499</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19.0676320881099</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59.278839212899996</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79.989790088224794</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="1"/>
-        <v>-3.6362546491943202</v>
+        <f>B26/1000000*1.465390329</f>
+        <v>-5.3285323967106448</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="1"/>
-        <v>-3.6362546491943202</v>
+        <f t="shared" ref="C12:E12" si="4">C26/1000000*1.465390329</f>
+        <v>-5.3285323967106448</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="1"/>
-        <v>-3.6362546491943202</v>
+        <f t="shared" si="4"/>
+        <v>-5.3285323967106448</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="1"/>
-        <v>-3.6362546491943202</v>
+        <f t="shared" si="4"/>
+        <v>-5.3285323967106448</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="1"/>
-        <v>10.458538769752</v>
+        <f>(B27+B26*1.465390329)/1000000</f>
+        <v>5.130006373041355</v>
       </c>
       <c r="C13" s="3">
-        <f t="shared" si="1"/>
-        <v>22.703886737304199</v>
+        <f t="shared" ref="C13:E13" si="5">(C27+C26*1.465390329)/1000000</f>
+        <v>17.375354340593553</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="1"/>
-        <v>62.915093862094295</v>
+        <f t="shared" si="5"/>
+        <v>57.586561465383653</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="1"/>
-        <v>83.626044737419093</v>
+        <f t="shared" si="5"/>
+        <v>78.297512340708451</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3">
-        <f t="shared" si="1"/>
-        <v>-0.24699598131410802</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="1"/>
-        <v>6.9919313441213307</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" si="1"/>
-        <v>49.938320969391199</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="1"/>
-        <v>73.674295318931911</v>
-      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>38.457422426549002</v>
       </c>
       <c r="C15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>131.80755903666301</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>172.72939645729801</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>206.20897939558898</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="1"/>
-        <v>-23.773666067199201</v>
+        <f>B30/1000000*1.465390329</f>
+        <v>-34.837700339749176</v>
       </c>
       <c r="C16" s="3">
-        <f t="shared" si="1"/>
-        <v>-25.320932054182599</v>
+        <f t="shared" ref="C16:E16" si="6">C30/1000000*1.465390329</f>
+        <v>-37.105048953465285</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>-25.320932054182599</v>
+        <f t="shared" si="6"/>
+        <v>-37.105048953465285</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="1"/>
-        <v>-25.320932054182599</v>
+        <f t="shared" si="6"/>
+        <v>-37.105048953465285</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="1"/>
-        <v>62.231088493748203</v>
+        <f>(B31+B30*1.465390329)/1000000</f>
+        <v>27.39338815399903</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" si="1"/>
-        <v>157.12849109084601</v>
+        <f t="shared" ref="C17:E17" si="7">(C31+C30*1.465390329)/1000000</f>
+        <v>120.02344213738071</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>198.05032851147999</v>
+        <f t="shared" si="7"/>
+        <v>160.94527955801473</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="1"/>
-        <v>231.52991144977199</v>
+        <f t="shared" si="7"/>
+        <v>194.42486249630673</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3">
-        <f t="shared" si="1"/>
-        <v>-3.8221987248550602</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="1"/>
-        <v>48.0972870376945</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="1"/>
-        <v>91.673894278869298</v>
-      </c>
-      <c r="E18" s="3">
-        <f t="shared" si="1"/>
-        <v>132.16159749566401</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21">
@@ -52708,15 +51641,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E32"/>
+  <dimension ref="A2:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -52724,7 +51657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -52732,7 +51665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -52742,7 +51675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -52752,51 +51685,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
         <f>B21/1000000</f>
-        <v>2.8836662594555502</v>
+        <v>2.7204264688941198</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" ref="B8:E18" si="0">B22/1000000</f>
-        <v>0</v>
+        <f t="shared" ref="B8:B18" si="0">B22/1000000</f>
+        <v>-0.55901633358354508</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
-        <v>2.8836662594555502</v>
+        <v>1.5786864094598798</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>1.5568239993561299</v>
@@ -52804,47 +51737,48 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
-        <v>4.9857175451426299</v>
+        <v>4.7034839526806502</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.96651182612754905</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
-        <v>4.9857175451426299</v>
+        <v>2.7294713818264205</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>2.6916723469082902</v>
@@ -52852,26 +51786,27 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
-        <v>34.717869726168402</v>
+        <v>32.752545977535796</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-6.7302712928430592</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -52879,20 +51814,17 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>34.717869726168402</v>
+        <v>19.006578490968998</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>18.743366233519499</v>
@@ -52903,17 +51835,17 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>2883666.25945555</v>
+        <v>2720426.4688941198</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>0</v>
+        <v>-559016.33358354506</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>2883666.25945555</v>
+        <v>1578686.4094598799</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -52923,17 +51855,17 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>4985717.5451426301</v>
+        <v>4703483.9526806502</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>0</v>
+        <v>-966511.82612754905</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>4985717.5451426301</v>
+        <v>2729471.3818264203</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -52943,17 +51875,17 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29">
-        <v>34717869.726168402</v>
+        <v>32752545.977535799</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30">
-        <v>0</v>
+        <v>-6730271.2928430596</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31">
-        <v>34717869.726168402</v>
+        <v>19006578.490968999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
